--- a/團膳自動化/輸入克數算總價/add_to_excel_test.xlsx
+++ b/團膳自動化/輸入克數算總價/add_to_excel_test.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,6 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1000">
     <cfRule type="expression" priority="1" dxfId="0">
@@ -687,7 +686,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,12 +736,12 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>公升</t>
+          <t>公斤</t>
         </is>
       </c>
     </row>
@@ -777,6 +776,40 @@
       <c r="C5" s="0" t="inlineStr">
         <is>
           <t>公升</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>香蕉</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>公克</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>芒果</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>台斤</t>
         </is>
       </c>
     </row>
